--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H2">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.818814205380573</v>
+        <v>0.2721246666666666</v>
       </c>
       <c r="N2">
-        <v>0.818814205380573</v>
+        <v>0.8163739999999999</v>
       </c>
       <c r="O2">
-        <v>0.4261854949111691</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="P2">
-        <v>0.4261854949111691</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="Q2">
-        <v>4.918519720125018</v>
+        <v>2.806180675586889</v>
       </c>
       <c r="R2">
-        <v>4.918519720125018</v>
+        <v>25.255626080282</v>
       </c>
       <c r="S2">
-        <v>0.2152319821059743</v>
+        <v>0.07313566942000566</v>
       </c>
       <c r="T2">
-        <v>0.2152319821059743</v>
+        <v>0.07313566942000566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H3">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.10244828514891</v>
+        <v>0.8319233333333332</v>
       </c>
       <c r="N3">
-        <v>1.10244828514891</v>
+        <v>2.49577</v>
       </c>
       <c r="O3">
-        <v>0.5738145050888309</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="P3">
-        <v>0.5738145050888309</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="Q3">
-        <v>6.622275963571814</v>
+        <v>8.578888529901111</v>
       </c>
       <c r="R3">
-        <v>6.622275963571814</v>
+        <v>77.20999676910999</v>
       </c>
       <c r="S3">
-        <v>0.2897875098193331</v>
+        <v>0.2235860153169595</v>
       </c>
       <c r="T3">
-        <v>0.2897875098193331</v>
+        <v>0.2235860153169595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.10249084289452</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H4">
-        <v>4.10249084289452</v>
+        <v>30.936343</v>
       </c>
       <c r="I4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.818814205380573</v>
+        <v>1.252499666666667</v>
       </c>
       <c r="N4">
-        <v>0.818814205380573</v>
+        <v>3.757499</v>
       </c>
       <c r="O4">
-        <v>0.4261854949111691</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="P4">
-        <v>0.4261854949111691</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="Q4">
-        <v>3.359177779605754</v>
+        <v>12.91591976512856</v>
       </c>
       <c r="R4">
-        <v>3.359177779605754</v>
+        <v>116.243277886157</v>
       </c>
       <c r="S4">
-        <v>0.1469959526222078</v>
+        <v>0.3366192513602858</v>
       </c>
       <c r="T4">
-        <v>0.1469959526222078</v>
+        <v>0.3366192513602858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.10249084289452</v>
+        <v>4.103438</v>
       </c>
       <c r="H5">
-        <v>4.10249084289452</v>
+        <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.10244828514891</v>
+        <v>0.2721246666666666</v>
       </c>
       <c r="N5">
-        <v>1.10244828514891</v>
+        <v>0.8163739999999999</v>
       </c>
       <c r="O5">
-        <v>0.5738145050888309</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="P5">
-        <v>0.5738145050888309</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="Q5">
-        <v>4.52278399458817</v>
+        <v>1.116646697937333</v>
       </c>
       <c r="R5">
-        <v>4.52278399458817</v>
+        <v>10.049820281436</v>
       </c>
       <c r="S5">
-        <v>0.1979147831428527</v>
+        <v>0.02910243965036422</v>
       </c>
       <c r="T5">
-        <v>0.1979147831428527</v>
+        <v>0.02910243965036421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H6">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.818814205380573</v>
+        <v>0.8319233333333332</v>
       </c>
       <c r="N6">
-        <v>0.818814205380573</v>
+        <v>2.49577</v>
       </c>
       <c r="O6">
-        <v>0.4261854949111691</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="P6">
-        <v>0.4261854949111691</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="Q6">
-        <v>1.461569595434081</v>
+        <v>3.413745819086666</v>
       </c>
       <c r="R6">
-        <v>1.461569595434081</v>
+        <v>30.72371237177999</v>
       </c>
       <c r="S6">
-        <v>0.063957560182987</v>
+        <v>0.08897024624276312</v>
       </c>
       <c r="T6">
-        <v>0.063957560182987</v>
+        <v>0.0889702462427631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H7">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10244828514891</v>
+        <v>1.252499666666667</v>
       </c>
       <c r="N7">
-        <v>1.10244828514891</v>
+        <v>3.757499</v>
       </c>
       <c r="O7">
-        <v>0.5738145050888309</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="P7">
-        <v>0.5738145050888309</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="Q7">
-        <v>1.967851661004315</v>
+        <v>5.139554727187334</v>
       </c>
       <c r="R7">
-        <v>1.967851661004315</v>
+        <v>46.25599254468599</v>
       </c>
       <c r="S7">
-        <v>0.08611221212664505</v>
+        <v>0.1339488860299372</v>
       </c>
       <c r="T7">
-        <v>0.08611221212664505</v>
+        <v>0.1339488860299371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.866538</v>
+      </c>
+      <c r="H8">
+        <v>5.599614</v>
+      </c>
+      <c r="I8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2721246666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.8163739999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.1154759865526449</v>
+      </c>
+      <c r="P8">
+        <v>0.1154759865526449</v>
+      </c>
+      <c r="Q8">
+        <v>0.5079310310706666</v>
+      </c>
+      <c r="R8">
+        <v>4.571379279635999</v>
+      </c>
+      <c r="S8">
+        <v>0.01323787748227499</v>
+      </c>
+      <c r="T8">
+        <v>0.01323787748227499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.866538</v>
+      </c>
+      <c r="H9">
+        <v>5.599614</v>
+      </c>
+      <c r="I9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8319233333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.49577</v>
+      </c>
+      <c r="O9">
+        <v>0.3530263126440755</v>
+      </c>
+      <c r="P9">
+        <v>0.3530263126440755</v>
+      </c>
+      <c r="Q9">
+        <v>1.552816514753333</v>
+      </c>
+      <c r="R9">
+        <v>13.97534863278</v>
+      </c>
+      <c r="S9">
+        <v>0.04047005108435282</v>
+      </c>
+      <c r="T9">
+        <v>0.04047005108435282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.866538</v>
+      </c>
+      <c r="H10">
+        <v>5.599614</v>
+      </c>
+      <c r="I10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.252499666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.757499</v>
+      </c>
+      <c r="O10">
+        <v>0.5314977008032796</v>
+      </c>
+      <c r="P10">
+        <v>0.5314977008032796</v>
+      </c>
+      <c r="Q10">
+        <v>2.337838222820667</v>
+      </c>
+      <c r="R10">
+        <v>21.040544005386</v>
+      </c>
+      <c r="S10">
+        <v>0.06092956341305677</v>
+      </c>
+      <c r="T10">
+        <v>0.06092956341305676</v>
       </c>
     </row>
   </sheetData>
